--- a/data_management/management/4. income imputation/output/VEN_income_imputation_2019_MA_JL.xlsx
+++ b/data_management/management/4. income imputation/output/VEN_income_imputation_2019_MA_JL.xlsx
@@ -96,62 +96,62 @@
     </row>
     <row r="6">
       <c r="B6">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="C6">
-        <v>30.781947429327161</v>
+        <v>30.798479087452474</v>
       </c>
       <c r="D6">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="E6">
-        <v>30.781947429327161</v>
+        <v>30.798479087452474</v>
       </c>
       <c r="F6">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="G6">
-        <v>30.781947429327161</v>
+        <v>30.798479087452474</v>
       </c>
     </row>
     <row r="7">
       <c r="B7">
-        <v>3917</v>
+        <v>3963</v>
       </c>
       <c r="C7">
-        <v>32.377252438419575</v>
+        <v>32.757480575301699</v>
       </c>
       <c r="D7">
-        <v>3917</v>
+        <v>3963</v>
       </c>
       <c r="E7">
-        <v>32.377252438419575</v>
+        <v>32.757480575301699</v>
       </c>
       <c r="F7">
-        <v>3917</v>
+        <v>3963</v>
       </c>
       <c r="G7">
-        <v>32.377252438419575</v>
+        <v>32.757480575301699</v>
       </c>
     </row>
     <row r="8">
       <c r="B8">
-        <v>8113</v>
+        <v>8098</v>
       </c>
       <c r="C8">
-        <v>67.06067118531989</v>
+        <v>66.936683749380066</v>
       </c>
       <c r="D8">
-        <v>8113</v>
+        <v>8098</v>
       </c>
       <c r="E8">
-        <v>67.06067118531989</v>
+        <v>66.936683749380066</v>
       </c>
       <c r="F8">
-        <v>8113</v>
+        <v>8098</v>
       </c>
       <c r="G8">
-        <v>67.06067118531989</v>
+        <v>66.936683749380066</v>
       </c>
     </row>
     <row r="9">
@@ -236,16 +236,16 @@
     </row>
     <row r="17">
       <c r="B17">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>0.42473666326877335</v>
+        <v>0.56065239551478085</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>0.42473666326877335</v>
+        <v>0.56065239551478085</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -256,16 +256,16 @@
     </row>
     <row r="18">
       <c r="B18">
-        <v>5804</v>
+        <v>5796</v>
       </c>
       <c r="C18">
-        <v>98.606863744478417</v>
+        <v>98.470948012232412</v>
       </c>
       <c r="D18">
-        <v>5804</v>
+        <v>5796</v>
       </c>
       <c r="E18">
-        <v>98.606863744478417</v>
+        <v>98.470948012232412</v>
       </c>
       <c r="F18">
         <v>5804</v>
